--- a/output_square.xlsx
+++ b/output_square.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9E39988B-CFBF-5741-A0D5-B1507F678615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A93582B-790F-DE4D-89B5-19724108B170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400"/>
+    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_square" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -3134,6 +3134,3417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Square Distance Measurements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> (d_front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>226.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169.601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.424000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108.96599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153.44900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>248.67099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246.559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>182.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162.214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151.107</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112.236</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.614999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.238</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.562</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152.68299999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324.80700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>417.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>378.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>367.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>319.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>288.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>303.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>278.09300000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>276.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>250.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>243.773</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>292.755</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>433.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>405.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>426.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>379.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>378.53500000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>358.286</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>382.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>329.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>326.38600000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>286.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>278.71800000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>276.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>247.666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>260.327</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>302.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>319.01100000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>275.27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>250.108</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>250.071</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>266.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>261.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>260.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>238.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>248.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>263.541</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>251.108</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>246.82400000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>256.93900000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>255.37</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>257.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>262.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>238.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255.09700000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>254.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>251.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>247.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>256.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>274.28199999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>257.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>272.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>260.34199999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>263.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>268.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>233.083</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>268.25799999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>234.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>245.19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>252.00700000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>255.291</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>238.947</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>256.14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>254.04900000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>243.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>257.75099999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252.512</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>250.08799999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>233.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>270.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CB2-EB4C-8B84-4F5744B916A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> d_right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>232.73699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>237.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>311.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>425.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>447.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>419.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>424.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>404.017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>397.57100000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>429.66199999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>412.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>409.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>419.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>411.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>425.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>499.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>390.30099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>412.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>402.92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>395.214</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>422.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>414.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>405.89100000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>387.41500000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>413.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>388.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>417.714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>403.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>423.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>447.25700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>311.392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>260.24200000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>249.37100000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>243.98400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242.40700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>255.25700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245.55600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>270.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>253.34700000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>253.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>268.197</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264.72899999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>273.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>301.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>299.92700000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>258.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>244.994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>252.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>237.49100000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>239.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>244.74100000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>245.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>248.90299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>268.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>233.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>238.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>239.154</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>242.58500000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>247.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>255.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>254.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>228.95599999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>246.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>256.03500000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>238.726</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>251.86199999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>270.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>247.471</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>272.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>249.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>245.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>247.822</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>264.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>259.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>263.93599999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>249.428</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>258.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>243.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>243.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>257.47699999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>238.96299999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>248.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>267.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>241.63399999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>243.46199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CB2-EB4C-8B84-4F5744B916A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075317183"/>
+        <c:axId val="2076074095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2075317183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076074095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2076074095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075317183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> theta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.1719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.843</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.895</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.472</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.708</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.8470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.3810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.109</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.1820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.0330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.742</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.1449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.093</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.2590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.7510000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8316-574E-AF4E-DDAE3F280CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2073431551"/>
+        <c:axId val="2075356783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2073431551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075356783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2075356783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073431551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> omega)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.3090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.226</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.1579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.2189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.2810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.238</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.0630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.115</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.155</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.114</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEA1-6346-BF1B-A6B171991016}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074895295"/>
+        <c:axId val="2074818383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074895295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074818383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2074818383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074895295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3175,6 +6586,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4246,6 +7777,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4315,6 +9394,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9426C920-00CA-1C41-9289-BE020FA258CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1AE6D4-AB5E-2943-9B76-1EEE09CB1D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EE35E4-A339-434D-997A-8133C367B92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4619,11 +9806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
